--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5399155664063</v>
+        <v>11.885677</v>
       </c>
       <c r="H2">
-        <v>11.5399155664063</v>
+        <v>35.657031</v>
       </c>
       <c r="I2">
-        <v>0.4745066084513126</v>
+        <v>0.4395313163202019</v>
       </c>
       <c r="J2">
-        <v>0.4745066084513126</v>
+        <v>0.4886973636926559</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N2">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O2">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P2">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q2">
-        <v>66.93801881460769</v>
+        <v>100.6078858377564</v>
       </c>
       <c r="R2">
-        <v>66.93801881460769</v>
+        <v>905.4709725398072</v>
       </c>
       <c r="S2">
-        <v>0.01594938272974966</v>
+        <v>0.02026446007415141</v>
       </c>
       <c r="T2">
-        <v>0.01594938272974966</v>
+        <v>0.02363603707173536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5399155664063</v>
+        <v>11.885677</v>
       </c>
       <c r="H3">
-        <v>11.5399155664063</v>
+        <v>35.657031</v>
       </c>
       <c r="I3">
-        <v>0.4745066084513126</v>
+        <v>0.4395313163202019</v>
       </c>
       <c r="J3">
-        <v>0.4745066084513126</v>
+        <v>0.4886973636926559</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N3">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P3">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q3">
-        <v>412.7523480030017</v>
+        <v>466.2143332816067</v>
       </c>
       <c r="R3">
-        <v>412.7523480030017</v>
+        <v>4195.928999534461</v>
       </c>
       <c r="S3">
-        <v>0.09834687801465192</v>
+        <v>0.0939049823392346</v>
       </c>
       <c r="T3">
-        <v>0.09834687801465192</v>
+        <v>0.1095287826899453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5399155664063</v>
+        <v>11.885677</v>
       </c>
       <c r="H4">
-        <v>11.5399155664063</v>
+        <v>35.657031</v>
       </c>
       <c r="I4">
-        <v>0.4745066084513126</v>
+        <v>0.4395313163202019</v>
       </c>
       <c r="J4">
-        <v>0.4745066084513126</v>
+        <v>0.4886973636926559</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N4">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O4">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P4">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q4">
-        <v>594.4771671150933</v>
+        <v>656.9289350043567</v>
       </c>
       <c r="R4">
-        <v>594.4771671150933</v>
+        <v>5912.360415039211</v>
       </c>
       <c r="S4">
-        <v>0.1416466162327895</v>
+        <v>0.1323187547785118</v>
       </c>
       <c r="T4">
-        <v>0.1416466162327895</v>
+        <v>0.15433379334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5399155664063</v>
+        <v>11.885677</v>
       </c>
       <c r="H5">
-        <v>11.5399155664063</v>
+        <v>35.657031</v>
       </c>
       <c r="I5">
-        <v>0.4745066084513126</v>
+        <v>0.4395313163202019</v>
       </c>
       <c r="J5">
-        <v>0.4745066084513126</v>
+        <v>0.4886973636926559</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N5">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O5">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P5">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q5">
-        <v>630.1873545104969</v>
+        <v>652.4154917917307</v>
       </c>
       <c r="R5">
-        <v>630.1873545104969</v>
+        <v>5871.739426125577</v>
       </c>
       <c r="S5">
-        <v>0.1501553151188115</v>
+        <v>0.1314096561624579</v>
       </c>
       <c r="T5">
-        <v>0.1501553151188115</v>
+        <v>0.1532734399670364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5399155664063</v>
+        <v>11.885677</v>
       </c>
       <c r="H6">
-        <v>11.5399155664063</v>
+        <v>35.657031</v>
       </c>
       <c r="I6">
-        <v>0.4745066084513126</v>
+        <v>0.4395313163202019</v>
       </c>
       <c r="J6">
-        <v>0.4745066084513126</v>
+        <v>0.4886973636926559</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N6">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O6">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P6">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q6">
-        <v>287.1035160832922</v>
+        <v>305.9944544865005</v>
       </c>
       <c r="R6">
-        <v>287.1035160832922</v>
+        <v>1835.966726919003</v>
       </c>
       <c r="S6">
-        <v>0.0684084163553101</v>
+        <v>0.06163346296584613</v>
       </c>
       <c r="T6">
-        <v>0.0684084163553101</v>
+        <v>0.04792531062393877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.22656693458917</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H7">
-        <v>5.22656693458917</v>
+        <v>16.272252</v>
       </c>
       <c r="I7">
-        <v>0.2149097656481382</v>
+        <v>0.2005821612308114</v>
       </c>
       <c r="J7">
-        <v>0.2149097656481382</v>
+        <v>0.2230193157064184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N7">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O7">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P7">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q7">
-        <v>30.31703601210027</v>
+        <v>45.91287680511601</v>
       </c>
       <c r="R7">
-        <v>30.31703601210027</v>
+        <v>413.2158912460441</v>
       </c>
       <c r="S7">
-        <v>0.007223667792257238</v>
+        <v>0.009247780640248214</v>
       </c>
       <c r="T7">
-        <v>0.007223667792257238</v>
+        <v>0.01078641549019098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.22656693458917</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H8">
-        <v>5.22656693458917</v>
+        <v>16.272252</v>
       </c>
       <c r="I8">
-        <v>0.2149097656481382</v>
+        <v>0.2005821612308114</v>
       </c>
       <c r="J8">
-        <v>0.2149097656481382</v>
+        <v>0.2230193157064184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N8">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P8">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q8">
-        <v>186.940516317689</v>
+        <v>212.75908017048</v>
       </c>
       <c r="R8">
-        <v>186.940516317689</v>
+        <v>1914.83172153432</v>
       </c>
       <c r="S8">
-        <v>0.04454248714330296</v>
+        <v>0.04285397560665034</v>
       </c>
       <c r="T8">
-        <v>0.04454248714330296</v>
+        <v>0.04998396959029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.22656693458917</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H9">
-        <v>5.22656693458917</v>
+        <v>16.272252</v>
       </c>
       <c r="I9">
-        <v>0.2149097656481382</v>
+        <v>0.2005821612308114</v>
       </c>
       <c r="J9">
-        <v>0.2149097656481382</v>
+        <v>0.2230193157064184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N9">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O9">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P9">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q9">
-        <v>269.2458785449828</v>
+        <v>299.79257601348</v>
       </c>
       <c r="R9">
-        <v>269.2458785449828</v>
+        <v>2698.13318412132</v>
       </c>
       <c r="S9">
-        <v>0.06415346078907985</v>
+        <v>0.06038427938888542</v>
       </c>
       <c r="T9">
-        <v>0.06415346078907985</v>
+        <v>0.07043094466682888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.22656693458917</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H10">
-        <v>5.22656693458917</v>
+        <v>16.272252</v>
       </c>
       <c r="I10">
-        <v>0.2149097656481382</v>
+        <v>0.2005821612308114</v>
       </c>
       <c r="J10">
-        <v>0.2149097656481382</v>
+        <v>0.2230193157064184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N10">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O10">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P10">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q10">
-        <v>285.4194530910678</v>
+        <v>297.732845203488</v>
       </c>
       <c r="R10">
-        <v>285.4194530910678</v>
+        <v>2679.595606831392</v>
       </c>
       <c r="S10">
-        <v>0.06800715313181399</v>
+        <v>0.05996940800564322</v>
       </c>
       <c r="T10">
-        <v>0.06800715313181399</v>
+        <v>0.06994704747152079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.22656693458917</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H11">
-        <v>5.22656693458917</v>
+        <v>16.272252</v>
       </c>
       <c r="I11">
-        <v>0.2149097656481382</v>
+        <v>0.2005821612308114</v>
       </c>
       <c r="J11">
-        <v>0.2149097656481382</v>
+        <v>0.2230193157064184</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N11">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O11">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P11">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q11">
-        <v>130.0326449816931</v>
+        <v>139.641993019746</v>
       </c>
       <c r="R11">
-        <v>130.0326449816931</v>
+        <v>837.8519581184761</v>
       </c>
       <c r="S11">
-        <v>0.03098299679168418</v>
+        <v>0.02812671758938414</v>
       </c>
       <c r="T11">
-        <v>0.03098299679168418</v>
+        <v>0.02187093848758773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.657396050866134</v>
+        <v>1.119691333333333</v>
       </c>
       <c r="H12">
-        <v>0.657396050866134</v>
+        <v>3.359074</v>
       </c>
       <c r="I12">
-        <v>0.02703128707577868</v>
+        <v>0.04140608949850495</v>
       </c>
       <c r="J12">
-        <v>0.02703128707577868</v>
+        <v>0.04603778167196658</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N12">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O12">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P12">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q12">
-        <v>3.813267867368791</v>
+        <v>9.477775463486443</v>
       </c>
       <c r="R12">
-        <v>3.813267867368791</v>
+        <v>85.299979171378</v>
       </c>
       <c r="S12">
-        <v>0.0009085908090014865</v>
+        <v>0.001909015390516391</v>
       </c>
       <c r="T12">
-        <v>0.0009085908090014865</v>
+        <v>0.002226635122556961</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.657396050866134</v>
+        <v>1.119691333333333</v>
       </c>
       <c r="H13">
-        <v>0.657396050866134</v>
+        <v>3.359074</v>
       </c>
       <c r="I13">
-        <v>0.02703128707577868</v>
+        <v>0.04140608949850495</v>
       </c>
       <c r="J13">
-        <v>0.02703128707577868</v>
+        <v>0.04603778167196658</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N13">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P13">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q13">
-        <v>23.5133231262798</v>
+        <v>43.91976565164889</v>
       </c>
       <c r="R13">
-        <v>23.5133231262798</v>
+        <v>395.2778908648399</v>
       </c>
       <c r="S13">
-        <v>0.005602540924134286</v>
+        <v>0.008846327801273807</v>
       </c>
       <c r="T13">
-        <v>0.005602540924134286</v>
+        <v>0.01031816940074022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.657396050866134</v>
+        <v>1.119691333333333</v>
       </c>
       <c r="H14">
-        <v>0.657396050866134</v>
+        <v>3.359074</v>
       </c>
       <c r="I14">
-        <v>0.02703128707577868</v>
+        <v>0.04140608949850495</v>
       </c>
       <c r="J14">
-        <v>0.02703128707577868</v>
+        <v>0.04603778167196658</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N14">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O14">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P14">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q14">
-        <v>33.86566736495215</v>
+        <v>61.88605286348221</v>
       </c>
       <c r="R14">
-        <v>33.86566736495215</v>
+        <v>556.9744757713399</v>
       </c>
       <c r="S14">
-        <v>0.008069203417836176</v>
+        <v>0.0124651008910101</v>
       </c>
       <c r="T14">
-        <v>0.008069203417836176</v>
+        <v>0.01453902969458582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.657396050866134</v>
+        <v>1.119691333333333</v>
       </c>
       <c r="H15">
-        <v>0.657396050866134</v>
+        <v>3.359074</v>
       </c>
       <c r="I15">
-        <v>0.02703128707577868</v>
+        <v>0.04140608949850495</v>
       </c>
       <c r="J15">
-        <v>0.02703128707577868</v>
+        <v>0.04603778167196658</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N15">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O15">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P15">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q15">
-        <v>35.89997481151335</v>
+        <v>61.46086351594488</v>
       </c>
       <c r="R15">
-        <v>35.89997481151335</v>
+        <v>553.1477716435039</v>
       </c>
       <c r="S15">
-        <v>0.008553919706572582</v>
+        <v>0.01237945916933612</v>
       </c>
       <c r="T15">
-        <v>0.008553919706572582</v>
+        <v>0.0144391390041373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.657396050866134</v>
+        <v>1.119691333333333</v>
       </c>
       <c r="H16">
-        <v>0.657396050866134</v>
+        <v>3.359074</v>
       </c>
       <c r="I16">
-        <v>0.02703128707577868</v>
+        <v>0.04140608949850495</v>
       </c>
       <c r="J16">
-        <v>0.02703128707577868</v>
+        <v>0.04603778167196658</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N16">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O16">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P16">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q16">
-        <v>16.3554678174924</v>
+        <v>28.82623671639366</v>
       </c>
       <c r="R16">
-        <v>16.3554678174924</v>
+        <v>172.957420298362</v>
       </c>
       <c r="S16">
-        <v>0.003897032218234147</v>
+        <v>0.005806186246368537</v>
       </c>
       <c r="T16">
-        <v>0.003897032218234147</v>
+        <v>0.00451480844994628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.325569095633317</v>
+        <v>0.4505540000000001</v>
       </c>
       <c r="H17">
-        <v>0.325569095633317</v>
+        <v>1.351662</v>
       </c>
       <c r="I17">
-        <v>0.01338698593560292</v>
+        <v>0.0166614482871554</v>
       </c>
       <c r="J17">
-        <v>0.01338698593560292</v>
+        <v>0.01852520071016408</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N17">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O17">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P17">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q17">
-        <v>1.88848437612481</v>
+        <v>3.813773956312668</v>
       </c>
       <c r="R17">
-        <v>1.88848437612481</v>
+        <v>34.32396560681401</v>
       </c>
       <c r="S17">
-        <v>0.000449970892885077</v>
+        <v>0.0007681710973846265</v>
       </c>
       <c r="T17">
-        <v>0.000449970892885077</v>
+        <v>0.0008959784997370074</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.325569095633317</v>
+        <v>0.4505540000000001</v>
       </c>
       <c r="H18">
-        <v>0.325569095633317</v>
+        <v>1.351662</v>
       </c>
       <c r="I18">
-        <v>0.01338698593560292</v>
+        <v>0.0166614482871554</v>
       </c>
       <c r="J18">
-        <v>0.01338698593560292</v>
+        <v>0.01852520071016408</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N18">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P18">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q18">
-        <v>11.64474799547542</v>
+        <v>17.67292958721334</v>
       </c>
       <c r="R18">
-        <v>11.64474799547542</v>
+        <v>159.05636628492</v>
       </c>
       <c r="S18">
-        <v>0.002774604714336005</v>
+        <v>0.003559684939517666</v>
       </c>
       <c r="T18">
-        <v>0.002774604714336005</v>
+        <v>0.004151941126793671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.325569095633317</v>
+        <v>0.4505540000000001</v>
       </c>
       <c r="H19">
-        <v>0.325569095633317</v>
+        <v>1.351662</v>
       </c>
       <c r="I19">
-        <v>0.01338698593560292</v>
+        <v>0.0166614482871554</v>
       </c>
       <c r="J19">
-        <v>0.01338698593560292</v>
+        <v>0.01852520071016408</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N19">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O19">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P19">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q19">
-        <v>16.77164729313435</v>
+        <v>24.90240643271334</v>
       </c>
       <c r="R19">
-        <v>16.77164729313435</v>
+        <v>224.12165789442</v>
       </c>
       <c r="S19">
-        <v>0.003996195681073766</v>
+        <v>0.005015847581965893</v>
       </c>
       <c r="T19">
-        <v>0.003996195681073766</v>
+        <v>0.005850378394475163</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.325569095633317</v>
+        <v>0.4505540000000001</v>
       </c>
       <c r="H20">
-        <v>0.325569095633317</v>
+        <v>1.351662</v>
       </c>
       <c r="I20">
-        <v>0.01338698593560292</v>
+        <v>0.0166614482871554</v>
       </c>
       <c r="J20">
-        <v>0.01338698593560292</v>
+        <v>0.01852520071016408</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N20">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O20">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P20">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q20">
-        <v>17.77911856520002</v>
+        <v>24.73131395786134</v>
       </c>
       <c r="R20">
-        <v>17.77911856520002</v>
+        <v>222.581825620752</v>
       </c>
       <c r="S20">
-        <v>0.00423624677896937</v>
+        <v>0.004981386102164823</v>
       </c>
       <c r="T20">
-        <v>0.00423624677896937</v>
+        <v>0.005810183254257047</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.325569095633317</v>
+        <v>0.4505540000000001</v>
       </c>
       <c r="H21">
-        <v>0.325569095633317</v>
+        <v>1.351662</v>
       </c>
       <c r="I21">
-        <v>0.01338698593560292</v>
+        <v>0.0166614482871554</v>
       </c>
       <c r="J21">
-        <v>0.01338698593560292</v>
+        <v>0.01852520071016408</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N21">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O21">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P21">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q21">
-        <v>8.099888733717266</v>
+        <v>11.599425547801</v>
       </c>
       <c r="R21">
-        <v>8.099888733717266</v>
+        <v>69.596553286806</v>
       </c>
       <c r="S21">
-        <v>0.001929967868338698</v>
+        <v>0.002336358566122387</v>
       </c>
       <c r="T21">
-        <v>0.001929967868338698</v>
+        <v>0.001816719434901193</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.57037290056889</v>
+        <v>8.1617005</v>
       </c>
       <c r="H22">
-        <v>6.57037290056889</v>
+        <v>16.323401</v>
       </c>
       <c r="I22">
-        <v>0.2701653528891677</v>
+        <v>0.3018189846633263</v>
       </c>
       <c r="J22">
-        <v>0.2701653528891677</v>
+        <v>0.2237203382187951</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N22">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O22">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P22">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q22">
-        <v>38.11186852333543</v>
+        <v>69.08579394728284</v>
       </c>
       <c r="R22">
-        <v>38.11186852333543</v>
+        <v>414.5147636836971</v>
       </c>
       <c r="S22">
-        <v>0.009080949636530387</v>
+        <v>0.01391527415051171</v>
       </c>
       <c r="T22">
-        <v>0.009080949636530387</v>
+        <v>0.0108203207152273</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.57037290056889</v>
+        <v>8.1617005</v>
       </c>
       <c r="H23">
-        <v>6.57037290056889</v>
+        <v>16.323401</v>
       </c>
       <c r="I23">
-        <v>0.2701653528891677</v>
+        <v>0.3018189846633263</v>
       </c>
       <c r="J23">
-        <v>0.2701653528891677</v>
+        <v>0.2237203382187951</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N23">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O23">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P23">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q23">
-        <v>235.00491198218</v>
+        <v>320.1417771197767</v>
       </c>
       <c r="R23">
-        <v>235.00491198218</v>
+        <v>1920.85066271866</v>
       </c>
       <c r="S23">
-        <v>0.05599483448943916</v>
+        <v>0.06448301946204849</v>
       </c>
       <c r="T23">
-        <v>0.05599483448943916</v>
+        <v>0.05014108552363308</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.57037290056889</v>
+        <v>8.1617005</v>
       </c>
       <c r="H24">
-        <v>6.57037290056889</v>
+        <v>16.323401</v>
       </c>
       <c r="I24">
-        <v>0.2701653528891677</v>
+        <v>0.3018189846633263</v>
       </c>
       <c r="J24">
-        <v>0.2701653528891677</v>
+        <v>0.2237203382187951</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N24">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O24">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P24">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q24">
-        <v>338.4718585108624</v>
+        <v>451.1023829176517</v>
       </c>
       <c r="R24">
-        <v>338.4718585108624</v>
+        <v>2706.61429750591</v>
       </c>
       <c r="S24">
-        <v>0.08064799810688961</v>
+        <v>0.09086113033655191</v>
       </c>
       <c r="T24">
-        <v>0.08064799810688961</v>
+        <v>0.07065233211761096</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.57037290056889</v>
+        <v>8.1617005</v>
       </c>
       <c r="H25">
-        <v>6.57037290056889</v>
+        <v>16.323401</v>
       </c>
       <c r="I25">
-        <v>0.2701653528891677</v>
+        <v>0.3018189846633263</v>
       </c>
       <c r="J25">
-        <v>0.2701653528891677</v>
+        <v>0.2237203382187951</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N25">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O25">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P25">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q25">
-        <v>358.8038311485152</v>
+        <v>448.0030750931826</v>
       </c>
       <c r="R25">
-        <v>358.8038311485152</v>
+        <v>2688.018450559096</v>
       </c>
       <c r="S25">
-        <v>0.08549251575159102</v>
+        <v>0.09023686714740448</v>
       </c>
       <c r="T25">
-        <v>0.08549251575159102</v>
+        <v>0.07016691387545314</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.57037290056889</v>
+        <v>8.1617005</v>
       </c>
       <c r="H26">
-        <v>6.57037290056889</v>
+        <v>16.323401</v>
       </c>
       <c r="I26">
-        <v>0.2701653528891677</v>
+        <v>0.3018189846633263</v>
       </c>
       <c r="J26">
-        <v>0.2701653528891677</v>
+        <v>0.2237203382187951</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N26">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O26">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P26">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q26">
-        <v>163.4654214648776</v>
+        <v>210.1214000834532</v>
       </c>
       <c r="R26">
-        <v>163.4654214648776</v>
+        <v>840.485600333813</v>
       </c>
       <c r="S26">
-        <v>0.0389490549047175</v>
+        <v>0.04232269356680968</v>
       </c>
       <c r="T26">
-        <v>0.0389490549047175</v>
+        <v>0.02193968598687066</v>
       </c>
     </row>
   </sheetData>
